--- a/biology/Botanique/Liste_des_vins_primeurs/Liste_des_vins_primeurs.xlsx
+++ b/biology/Botanique/Liste_des_vins_primeurs/Liste_des_vins_primeurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vins primeurs, ou vins nouveaux, sont des vins tranquilles autorisés à la vente l'année même de leur production. Pour les vins français, cette autorisation doit être inscrite dans le cahier des charges de l'appellation validé par l'INAO[1]. C'est le cas, en août 2018, pour 16 appellations de vins sous AOC et 68 appellations de vins sous IGP[2]. Le vin primeur le plus exporté est le beaujolais nouveau, mis en vente chaque année le troisième jeudi de novembre, quelques semaines seulement après les vendanges.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins primeurs, ou vins nouveaux, sont des vins tranquilles autorisés à la vente l'année même de leur production. Pour les vins français, cette autorisation doit être inscrite dans le cahier des charges de l'appellation validé par l'INAO. C'est le cas, en août 2018, pour 16 appellations de vins sous AOC et 68 appellations de vins sous IGP. Le vin primeur le plus exporté est le beaujolais nouveau, mis en vente chaque année le troisième jeudi de novembre, quelques semaines seulement après les vendanges.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
